--- a/Assets/Levels/Level2/Mines.xlsx
+++ b/Assets/Levels/Level2/Mines.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7002AF-1E3C-43D1-AFDE-511B022CA5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A189D-0502-469C-99BF-60D13A3D6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
@@ -82,8 +82,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Zarez" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,30 +395,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF369A3-DCC3-4973-AC1E-EF925DA3C8EE}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>100</v>
       </c>
-      <c r="C1" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>+A1+100</f>
         <v>100</v>
@@ -427,11 +424,8 @@
         <f>+B1+100</f>
         <v>200</v>
       </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A20" si="0">+A2+100</f>
         <v>200</v>
@@ -440,11 +434,8 @@
         <f t="shared" ref="B3:B7" si="1">+B2+100</f>
         <v>300</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -453,11 +444,8 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -466,11 +454,8 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -479,11 +464,8 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -492,11 +474,8 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="C7" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -504,11 +483,8 @@
       <c r="B8" s="1">
         <v>100</v>
       </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -517,11 +493,8 @@
         <f t="shared" ref="B9:B20" si="2">+B8+100</f>
         <v>200</v>
       </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -530,11 +503,8 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="C10" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -543,11 +513,8 @@
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="C11" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1100</v>
@@ -556,11 +523,8 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="C12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -569,11 +533,8 @@
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1300</v>
@@ -582,11 +543,8 @@
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="C14" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -594,24 +552,18 @@
       <c r="B15" s="1">
         <v>100</v>
       </c>
-      <c r="C15" s="1">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="C16" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -620,11 +572,8 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="C17" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1700</v>
@@ -633,11 +582,8 @@
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="C18" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1800</v>
@@ -646,11 +592,8 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="C19" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1900</v>
@@ -658,9 +601,6 @@
       <c r="B20" s="1">
         <f t="shared" si="2"/>
         <v>600</v>
-      </c>
-      <c r="C20" s="1">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Levels/Level2/Mines.xlsx
+++ b/Assets/Levels/Level2/Mines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\Level2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A189D-0502-469C-99BF-60D13A3D6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA6A313-2C25-441A-8ADE-B01EF915A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF369A3-DCC3-4973-AC1E-EF925DA3C8EE}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,196 +415,188 @@
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>100</v>
+      <c r="B1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>+A1+100</f>
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <f>+B1+100</f>
-        <v>200</v>
+        <f>+A1+2</f>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A20" si="0">+A2+100</f>
-        <v>200</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B7" si="1">+B2+100</f>
-        <v>300</v>
+        <f t="shared" ref="A3:A21" si="0">+A2+2</f>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ref="B9:B20" si="2">+B8+100</f>
-        <v>200</v>
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="2"/>
-        <v>700</v>
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="2"/>
-        <v>500</v>
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
